--- a/auto/new_data/10_機場吞吐量.xlsx
+++ b/auto/new_data/10_機場吞吐量.xlsx
@@ -458,7 +458,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45610.46235291774</v>
+        <v>45617.63580370506</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -467,13 +467,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45610.46235291774</v>
+        <v>45617.63580370506</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -482,13 +482,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45610.46235291774</v>
+        <v>45617.63580370506</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -497,13 +497,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>41</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45610.46235291774</v>
+        <v>45617.63580370506</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -512,13 +512,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45610.46235291774</v>
+        <v>45617.63580370506</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -527,13 +527,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45610.46235291774</v>
+        <v>45617.63580370506</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>49</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/10_機場吞吐量.xlsx
+++ b/auto/new_data/10_機場吞吐量.xlsx
@@ -458,7 +458,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45617.63580370506</v>
+        <v>45652.48161136214</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -467,13 +467,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45617.63580370506</v>
+        <v>45652.48161136214</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -482,13 +482,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45617.63580370506</v>
+        <v>45652.48161136214</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -497,13 +497,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45617.63580370506</v>
+        <v>45652.48161136214</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -512,13 +512,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45617.63580370506</v>
+        <v>45652.48161136214</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -527,13 +527,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45617.63580370506</v>
+        <v>45652.48161136214</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>78</t>
         </is>
       </c>
     </row>
